--- a/src/main/resources/documents/表结构.xlsx
+++ b/src/main/resources/documents/表结构.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="7"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="20"/>
   </bookViews>
   <sheets>
     <sheet name="用户" sheetId="1" state="visible" r:id="rId2"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="671" uniqueCount="319">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="322">
   <si>
     <r>
       <rPr>
@@ -85,9 +85,165 @@
     <t xml:space="preserve">username</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">varchar</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF6897BB"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">20</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="0"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">ID</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">，教工号</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">主键，</t>
+  </si>
+  <si>
+    <t xml:space="preserve">password</t>
+  </si>
+  <si>
+    <t xml:space="preserve">密码</t>
+  </si>
+  <si>
+    <t xml:space="preserve">permission</t>
+  </si>
+  <si>
+    <t xml:space="preserve">varchar(50)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">权限码</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xflxdelsign</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tinyint(1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">删除标记</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">表：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="0"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">xiaofeileixing</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">xflxid</t>
+  </si>
+  <si>
     <t xml:space="preserve">int</t>
   </si>
   <si>
+    <t xml:space="preserve">ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xflxname</t>
+  </si>
+  <si>
+    <t xml:space="preserve">消费名</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">表：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="0"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">Role</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">roleId</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">角色</t>
+    </r>
     <r>
       <rPr>
         <sz val="11"/>
@@ -98,43 +254,39 @@
       </rPr>
       <t xml:space="preserve">ID</t>
     </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">，教工号</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">主键，</t>
-  </si>
-  <si>
-    <t xml:space="preserve">password</t>
-  </si>
-  <si>
-    <t xml:space="preserve">varchar(50)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">密码</t>
-  </si>
-  <si>
-    <t xml:space="preserve">permission</t>
-  </si>
-  <si>
-    <t xml:space="preserve">权限码</t>
-  </si>
-  <si>
-    <t xml:space="preserve">xflxdelsign</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tinyint(1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">删除标记</t>
+  </si>
+  <si>
+    <t xml:space="preserve">roleName</t>
+  </si>
+  <si>
+    <t xml:space="preserve">角色名</t>
+  </si>
+  <si>
+    <t xml:space="preserve">roleNameZh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">角色中文名</t>
+  </si>
+  <si>
+    <t xml:space="preserve">表名：School</t>
+  </si>
+  <si>
+    <t xml:space="preserve">id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">学院id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">主键</t>
+  </si>
+  <si>
+    <t xml:space="preserve">schoolname</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Varchar(100)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">学院名</t>
   </si>
   <si>
     <r>
@@ -155,20 +307,340 @@
         <family val="0"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">xiaofeileixing</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">xflxid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">xflxname</t>
-  </si>
-  <si>
-    <t xml:space="preserve">消费名</t>
+      <t xml:space="preserve">class</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">班级id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">classname</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Varchar(20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">班级名（如一班二班）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">year</t>
+  </si>
+  <si>
+    <t xml:space="preserve">date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">创建年份</t>
+  </si>
+  <si>
+    <t xml:space="preserve">school</t>
+  </si>
+  <si>
+    <t xml:space="preserve">所属学院</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">表名：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="0"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">student</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="0"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">ICDC_XS.BKS_XSJBSJXX</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">，基本、学籍</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">袁备注</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stuid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">学号</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stuname</t>
+  </si>
+  <si>
+    <t xml:space="preserve">姓名</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stusex</t>
+  </si>
+  <si>
+    <t xml:space="preserve">性别</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xbm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">birth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">生日</t>
+  </si>
+  <si>
+    <t xml:space="preserve">csrq</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stuschool</t>
+  </si>
+  <si>
+    <t xml:space="preserve">学院</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">应该设置一个学院表，，此处输入学院的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="0"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">，，作为外键</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">yxsh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stuclass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">班</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">此处设置班级信息，输入班级</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="0"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">作为外键</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">szbh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stuss</t>
+  </si>
+  <si>
+    <t xml:space="preserve">宿舍</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stujg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">varchar(500)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">籍贯</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stuzzmm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">政治面貌</t>
+  </si>
+  <si>
+    <t xml:space="preserve">studelsign</t>
+  </si>
+  <si>
+    <t xml:space="preserve">可输入“是”或“否”</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">在</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="0"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">mysql</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">中可使用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="0"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">tinyint(1)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">作为数据类型，类似于</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="0"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">bool</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">值，适合表示删除标记。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">全局备注：删除标记的数据类型都可以修改为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="0"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">tinyint(1)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">类型，提高效率。</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">我后面没有重新备注的感觉可以直接听你的作修改，备注了的咱俩在讨论。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">主键加粗表示，</t>
   </si>
   <si>
     <r>
@@ -189,66 +661,155 @@
         <family val="0"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">Role</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">roleId</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">角色</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
+      <t xml:space="preserve">tushu</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">TSIBXX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">isbn</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">varchar</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF6897BB"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">50</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">)</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">书号</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">建议使用图书的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="0"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">ISBN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">作为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
         <family val="0"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">ID</t>
     </r>
-  </si>
-  <si>
-    <t xml:space="preserve">roleName</t>
-  </si>
-  <si>
-    <t xml:space="preserve">角色名</t>
-  </si>
-  <si>
-    <t xml:space="preserve">roleNameZh</t>
-  </si>
-  <si>
-    <t xml:space="preserve">角色中文名</t>
-  </si>
-  <si>
-    <t xml:space="preserve">表名：School</t>
-  </si>
-  <si>
-    <t xml:space="preserve">id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">学院id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">主键</t>
-  </si>
-  <si>
-    <t xml:space="preserve">schoolname</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Varchar(100)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">学院名</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">，根据这个还可以查到图书的类别，咱们不需要费力分类。</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">isbnh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tsname</t>
+  </si>
+  <si>
+    <t xml:space="preserve">书名</t>
+  </si>
+  <si>
+    <t xml:space="preserve">好</t>
+  </si>
+  <si>
+    <t xml:space="preserve">csmc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tssort</t>
+  </si>
+  <si>
+    <t xml:space="preserve">类别</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wxlxm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tsauthor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">作者</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dyzz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tskc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">库存</t>
+  </si>
+  <si>
+    <t xml:space="preserve">非空</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tsdelsign</t>
+  </si>
+  <si>
+    <t xml:space="preserve">消除标记</t>
   </si>
   <si>
     <r>
@@ -269,135 +830,230 @@
         <family val="0"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">class</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">班级id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">classname</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Varchar(20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">班级名（如一班二班）</t>
-  </si>
-  <si>
-    <t xml:space="preserve">year</t>
-  </si>
-  <si>
-    <t xml:space="preserve">date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">创建年份</t>
-  </si>
-  <si>
-    <t xml:space="preserve">school</t>
-  </si>
-  <si>
-    <t xml:space="preserve">所属学院</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">表名：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="0"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">student</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="0"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">ICDC_XS.BKS_XSJBSJXX</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">，基本、学籍</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">袁备注</t>
-  </si>
-  <si>
-    <t xml:space="preserve">stuid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">学号</t>
-  </si>
-  <si>
-    <t xml:space="preserve">xh</t>
-  </si>
-  <si>
-    <t xml:space="preserve">stuname</t>
-  </si>
-  <si>
-    <t xml:space="preserve">姓名</t>
-  </si>
-  <si>
-    <t xml:space="preserve">xm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">stusex</t>
-  </si>
-  <si>
-    <t xml:space="preserve">性别</t>
-  </si>
-  <si>
-    <t xml:space="preserve">xbm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">birth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">生日</t>
-  </si>
-  <si>
-    <t xml:space="preserve">csrq</t>
-  </si>
-  <si>
-    <t xml:space="preserve">stuschool</t>
-  </si>
-  <si>
-    <t xml:space="preserve">学院</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">应该设置一个学院表，，此处输入学院的</t>
+      <t xml:space="preserve">jieshu</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">TSJYYGHXX</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">主键</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="0"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">（一个学生可以有好几条借书记录）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="0"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">外键参考学生表，和图书表</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">主键</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="0"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">（学生可以借多本书，也可能反复借某一本书，所以感觉加上借阅日期作为主键感觉更靠谱）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="0"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">外键参考学生表，和图书表</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">jyr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jydate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">借阅日期</t>
+  </si>
+  <si>
+    <t xml:space="preserve">主键 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">jsrq</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jsyhdate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">应还日期</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yhrq</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jsghdate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">归还日期</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ghrq</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jscqdays</t>
+  </si>
+  <si>
+    <t xml:space="preserve">超期天数</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jsfine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">float</t>
+  </si>
+  <si>
+    <t xml:space="preserve">罚款额</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jssort</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jsdelsign</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">表：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="0"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">xiaofei</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">ods_ykt_jy_rz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">外键，参考学生表学号</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">消费类型</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="0"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">ID</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">外键，参考消费类型表 </t>
     </r>
     <r>
       <rPr>
@@ -409,90 +1065,266 @@
       </rPr>
       <t xml:space="preserve">id</t>
     </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">，，作为外键</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">yxsh</t>
-  </si>
-  <si>
-    <t xml:space="preserve">stuclass</t>
-  </si>
-  <si>
-    <t xml:space="preserve">班</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">此处设置班级信息，输入班级</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="0"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">id</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">作为外键</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">szbh</t>
-  </si>
-  <si>
-    <t xml:space="preserve">stuss</t>
-  </si>
-  <si>
-    <t xml:space="preserve">宿舍</t>
-  </si>
-  <si>
-    <t xml:space="preserve">stujg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">varchar(500)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">籍贯</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">stuzzmm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">政治面貌</t>
-  </si>
-  <si>
-    <t xml:space="preserve">studelsign</t>
-  </si>
-  <si>
-    <t xml:space="preserve">可输入“是”或“否”</t>
+  </si>
+  <si>
+    <t xml:space="preserve">julx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xfid</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">消费</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="0"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">ID</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">xftime</t>
+  </si>
+  <si>
+    <t xml:space="preserve">时间</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jysj,jyrq</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xfadress</t>
+  </si>
+  <si>
+    <t xml:space="preserve">地点</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jydd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xfmoney</t>
+  </si>
+  <si>
+    <t xml:space="preserve">金额</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jyje</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xfdelsign</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">表：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="0"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">ceshi</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">csid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">测试号</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cstime</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">表</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="0"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">:xinliceshiti</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">測试号</t>
+  </si>
+  <si>
+    <t xml:space="preserve">外键，参考测试表中的测试号</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xlcstmh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">题目号</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xlcsdescription</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Varchar(500)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">題目描述</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xlcsdscore</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="0"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">D</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">分数</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">xlcscscore</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="0"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">C</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">分数</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">xlcsbscore</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="0"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">B</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">分数</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">xlcsascore</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="0"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">分数</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">xlcsdelsign</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">表：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="0"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">menjin</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">mjid</t>
   </si>
   <si>
     <r>
@@ -503,7 +1335,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">在</t>
+      <t xml:space="preserve">门禁</t>
     </r>
     <r>
       <rPr>
@@ -513,8 +1345,75 @@
         <family val="0"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">mysql</t>
-    </r>
+      <t xml:space="preserve">ID</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">可添加，，或不添加，，就用所有字段的当主键</t>
+  </si>
+  <si>
+    <t xml:space="preserve">添加以提高性能。</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> stuid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">外键，参考学生表中的学号，</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mjtime</t>
+  </si>
+  <si>
+    <t xml:space="preserve">datetime</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mjadress</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">表：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="0"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">yujing</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">外键，参考学生表中的学号</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="0"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">,</t>
+    </r>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -523,86 +1422,309 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">中可使用</t>
-    </r>
+      <t xml:space="preserve">主键</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">，一个学生可以有好几条预警记录</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">yjsort</t>
+  </si>
+  <si>
+    <t xml:space="preserve">类型：社交预警，心理预警，挂科预警，毕业预警</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yjtime</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yjjibie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">varchar(20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">级别</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">表：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="0"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">teacher</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">tid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">教师号</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tname</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tsex</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tinyint(1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tpost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">职称</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">表：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="0"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">course</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">对应</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="0"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">BKS_KCSIXX</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">cid</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">课程</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="0"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">ID</t>
+    </r>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="0"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">tinyint(1)</t>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">建议把课程</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Noto Sans CJK SC"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">作为数据类型，类似于</t>
+        <rFont val="宋体"/>
+        <family val="0"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">ID</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="0"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">bool</t>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">和教师</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Noto Sans CJK SC"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">值，适合表示删除标记。</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">全局备注：删除标记的数据类型都可以修改为</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="0"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">tinyint(1)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">类型，提高效率。</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">我后面没有重新备注的感觉可以直接听你的作修改，备注了的咱俩在讨论。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">主键加粗表示，</t>
+        <rFont val="宋体"/>
+        <family val="0"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">ID</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">结合作为最终的主键，便于查找一门课被多名老师教的情况。</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">bh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cname</t>
+  </si>
+  <si>
+    <t xml:space="preserve">课程名称</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kcmc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">csort</t>
+  </si>
+  <si>
+    <t xml:space="preserve">课程类型</t>
+  </si>
+  <si>
+    <t xml:space="preserve">选修，必修，等</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kclbm</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">教师</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="0"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">ID</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF5B9BD5"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">主键，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">外键，参考教师表中的教师号</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">cdeisign</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">tinyint</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF6897BB"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">)</t>
+    </r>
   </si>
   <si>
     <r>
@@ -623,17 +1745,321 @@
         <family val="0"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">tushu</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">TSIBXX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">isbn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">书号</t>
+      <t xml:space="preserve">grade</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">BKS_CJXX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">主键，外键，分别参考课程表中的课程号和学生表中的学生号</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kch</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">学生</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="0"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">ID</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">gterm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">考试学期</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xqm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">score</t>
+  </si>
+  <si>
+    <t xml:space="preserve">分数</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fslkscj,djlkscj,kccj</t>
+  </si>
+  <si>
+    <t xml:space="preserve">isfail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">是否挂科</t>
+  </si>
+  <si>
+    <t xml:space="preserve">是或否</t>
+  </si>
+  <si>
+    <t xml:space="preserve">同学生表中的删除标记的数据类型定义。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cxbkbz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gdelsign</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">表：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="0"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">xinlitest</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">主键，外键，参考学生表，测试表</t>
+  </si>
+  <si>
+    <t xml:space="preserve">主键，外键，参考学生表，心理测试表</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">表：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="0"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">zhuanyeactivity</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">aid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">活动号</t>
+  </si>
+  <si>
+    <t xml:space="preserve">此表可不用</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aname</t>
+  </si>
+  <si>
+    <t xml:space="preserve">活动名</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ajibie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">活动级别</t>
+  </si>
+  <si>
+    <t xml:space="preserve">asort</t>
+  </si>
+  <si>
+    <t xml:space="preserve">活动类型</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adelsign</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">表：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="0"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">award</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">获奖记录</t>
+  </si>
+  <si>
+    <t xml:space="preserve">int </t>
+  </si>
+  <si>
+    <t xml:space="preserve">外键</t>
+  </si>
+  <si>
+    <t xml:space="preserve">新增一个属性获奖级别？进行毕业预警或统计展示时可能会有用。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">arongyu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">荣誉</t>
+  </si>
+  <si>
+    <t xml:space="preserve">获奖名称</t>
+  </si>
+  <si>
+    <t xml:space="preserve">获奖类别</t>
+  </si>
+  <si>
+    <t xml:space="preserve">atime</t>
+  </si>
+  <si>
+    <t xml:space="preserve">获奖时间</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">表：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="0"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">internetapplication</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">iaid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">应用号</t>
+  </si>
+  <si>
+    <t xml:space="preserve">iayuming</t>
+  </si>
+  <si>
+    <t xml:space="preserve">域名</t>
+  </si>
+  <si>
+    <t xml:space="preserve">iasort</t>
+  </si>
+  <si>
+    <t xml:space="preserve">应用类型</t>
+  </si>
+  <si>
+    <t xml:space="preserve">iadelsign</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">表：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="0"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">internetdata</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">主键，外键</t>
+  </si>
+  <si>
+    <t xml:space="preserve">一个学生可能多次使用同一个应用，加上开始时间可能更能表现这种关系。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">idstarttime</t>
+  </si>
+  <si>
+    <t xml:space="preserve">开始时间</t>
+  </si>
+  <si>
+    <t xml:space="preserve">idendtime</t>
+  </si>
+  <si>
+    <t xml:space="preserve">结束时间</t>
+  </si>
+  <si>
+    <t xml:space="preserve">iddelsign</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">表：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="0"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">groupdata</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">gdid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">群体代码</t>
   </si>
   <si>
     <r>
@@ -644,7 +2070,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">建议使用图书的</t>
+      <t xml:space="preserve">我设计了一种群体代码的表示方法，如</t>
     </r>
     <r>
       <rPr>
@@ -654,7 +2080,7 @@
         <family val="0"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">ISBN</t>
+      <t xml:space="preserve">1_2019_03</t>
     </r>
     <r>
       <rPr>
@@ -664,7 +2090,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">作为</t>
+      <t xml:space="preserve">代表</t>
     </r>
     <r>
       <rPr>
@@ -674,7 +2100,7 @@
         <family val="0"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">ID</t>
+      <t xml:space="preserve">1</t>
     </r>
     <r>
       <rPr>
@@ -684,56 +2110,75 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">，根据这个还可以查到图书的类别，咱们不需要费力分类。</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">isbnh</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tsname</t>
-  </si>
-  <si>
-    <t xml:space="preserve">书名</t>
-  </si>
-  <si>
-    <t xml:space="preserve">好</t>
-  </si>
-  <si>
-    <t xml:space="preserve">csmc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tssort</t>
-  </si>
-  <si>
-    <t xml:space="preserve">类别</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wxlxm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tsauthor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">作者</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dyzz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tskc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">库存</t>
-  </si>
-  <si>
-    <t xml:space="preserve">非空</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tsdelsign</t>
-  </si>
-  <si>
-    <t xml:space="preserve">消除标记</t>
+      <t xml:space="preserve">号学院</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="0"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">2019</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">级</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="0"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">03</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">班的全体学生，易于查找和权限判断，希望可以直接将其作为主键。</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">gdsex</t>
+  </si>
+  <si>
+    <t xml:space="preserve">男女比例</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gdage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">年龄比例</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gdzzmm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gdmz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">民族比例</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gdsyd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">生源地比例 </t>
   </si>
   <si>
     <r>
@@ -754,1345 +2199,14 @@
         <family val="0"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">jieshu</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">TSJYYGHXX</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">主键</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="0"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">（一个学生可以有好几条借书记录）</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="0"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">外键参考学生表，和图书表</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Noto Sans CJK SC"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">主键</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="0"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Noto Sans CJK SC"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">（学生可以借多本书，也可能反复借某一本书，所以感觉加上借阅日期作为主键感觉更靠谱）</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="0"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Noto Sans CJK SC"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">外键参考学生表，和图书表</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">jyr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jydate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">借阅日期</t>
-  </si>
-  <si>
-    <t xml:space="preserve">主键 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">jsrq</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jsyhdate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">应还日期</t>
-  </si>
-  <si>
-    <t xml:space="preserve">yhrq</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jsghdate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">归还日期</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ghrq</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jscqdays</t>
-  </si>
-  <si>
-    <t xml:space="preserve">超期天数</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jsfine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">float</t>
-  </si>
-  <si>
-    <t xml:space="preserve">罚款额</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jssort</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jsdelsign</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">表：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="0"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">xiaofei</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">ods_ykt_jy_rz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">外键，参考学生表学号</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">消费类型</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="0"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">ID</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">外键，参考消费类型表 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="0"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">id</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">julx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">xfid</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">消费</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="0"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">ID</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">xftime</t>
-  </si>
-  <si>
-    <t xml:space="preserve">时间</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jysj,jyrq</t>
-  </si>
-  <si>
-    <t xml:space="preserve">xfadress</t>
-  </si>
-  <si>
-    <t xml:space="preserve">地点</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jydd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">xfmoney</t>
-  </si>
-  <si>
-    <t xml:space="preserve">金额</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jyje</t>
-  </si>
-  <si>
-    <t xml:space="preserve">xfdelsign</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">表：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="0"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">ceshi</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">csid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">测试号</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cstime</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">表</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="0"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">:xinliceshiti</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">測试号</t>
-  </si>
-  <si>
-    <t xml:space="preserve">外键，参考测试表中的测试号</t>
-  </si>
-  <si>
-    <t xml:space="preserve">xlcstmh</t>
-  </si>
-  <si>
-    <t xml:space="preserve">题目号</t>
-  </si>
-  <si>
-    <t xml:space="preserve">xlcsdescription</t>
-  </si>
-  <si>
-    <t xml:space="preserve">題目描述</t>
-  </si>
-  <si>
-    <t xml:space="preserve">xlcsdscore</t>
-  </si>
-  <si>
-    <t xml:space="preserve">numeric</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="0"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">D</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">分数</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">xlcscscore</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="0"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">C</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">分数</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">xlcsbscore</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="0"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">B</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">分数</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">xlcsascore</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="0"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">A</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">分数</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">xlcsdelsign</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">表：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="0"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">menjin</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">mjid</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Noto Sans CJK SC"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">门禁</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="0"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">ID</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">可添加，，或不添加，，就用所有字段的当主键</t>
-  </si>
-  <si>
-    <t xml:space="preserve">添加以提高性能。</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> stuid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">外键，参考学生表中的学号，</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mjtime</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mjadress</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">表：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="0"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">yujing</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">外键，参考学生表中的学号</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="0"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">,</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Noto Sans CJK SC"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">主键</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">，一个学生可以有好几条预警记录</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">yjsort</t>
-  </si>
-  <si>
-    <t xml:space="preserve">类型：社交预警，心理预警，挂科预警，毕业预警</t>
-  </si>
-  <si>
-    <t xml:space="preserve">yjtime</t>
-  </si>
-  <si>
-    <t xml:space="preserve">yjjibie</t>
-  </si>
-  <si>
-    <t xml:space="preserve">varchar(20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">级别</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">表：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="0"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">teacher</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">tid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">教师号</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tname</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tsex</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tpost</t>
-  </si>
-  <si>
-    <t xml:space="preserve">职称</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">表：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="0"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">course</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">对应</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="0"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">BKS_KCSIXX</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">cid</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">课程</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="0"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">ID</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Noto Sans CJK SC"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">建议把课程</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="0"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">ID</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Noto Sans CJK SC"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">和教师</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="0"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">ID</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Noto Sans CJK SC"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">结合作为最终的主键，便于查找一门课被多名老师教的情况。</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">bh</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cname</t>
-  </si>
-  <si>
-    <t xml:space="preserve">课程名称</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kcmc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">csort</t>
-  </si>
-  <si>
-    <t xml:space="preserve">课程类型</t>
-  </si>
-  <si>
-    <t xml:space="preserve">选修，必修，等</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kclbm</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">教师</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="0"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">ID</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF5B9BD5"/>
-        <rFont val="Noto Sans CJK SC"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">主键，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">外键，参考教师表中的教师号</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">cdeisign</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">表：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="0"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">grade</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">BKS_CJXX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">主键，外键，分别参考课程表中的课程号和学生表中的学生号</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kch</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">学生</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="0"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">ID</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">gterm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">考试学期</t>
-  </si>
-  <si>
-    <t xml:space="preserve">xqm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">score</t>
-  </si>
-  <si>
-    <t xml:space="preserve">分数</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fslkscj,djlkscj,kccj</t>
-  </si>
-  <si>
-    <t xml:space="preserve">isfail</t>
-  </si>
-  <si>
-    <t xml:space="preserve">是否挂科</t>
-  </si>
-  <si>
-    <t xml:space="preserve">是或否</t>
-  </si>
-  <si>
-    <t xml:space="preserve">同学生表中的删除标记的数据类型定义。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cxbkbz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gdelsign</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">表：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="0"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">xinlitest</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">主键，外键，参考学生表，测试表</t>
-  </si>
-  <si>
-    <t xml:space="preserve">主键，外键，参考学生表，心理测试表</t>
-  </si>
-  <si>
-    <t xml:space="preserve">selection</t>
+      <t xml:space="preserve">groupbehavior</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">gbmonth</t>
   </si>
   <si>
     <t xml:space="preserve">varchar(10)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">选项</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">表：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="0"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">zhuanyeactivity</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">aid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">活动号</t>
-  </si>
-  <si>
-    <t xml:space="preserve">此表可不用</t>
-  </si>
-  <si>
-    <t xml:space="preserve">aname</t>
-  </si>
-  <si>
-    <t xml:space="preserve">活动名</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ajibie</t>
-  </si>
-  <si>
-    <t xml:space="preserve">活动级别</t>
-  </si>
-  <si>
-    <t xml:space="preserve">asort</t>
-  </si>
-  <si>
-    <t xml:space="preserve">活动类型</t>
-  </si>
-  <si>
-    <t xml:space="preserve">adelsign</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">表：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="0"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">award</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">获奖记录</t>
-  </si>
-  <si>
-    <t xml:space="preserve">int </t>
-  </si>
-  <si>
-    <t xml:space="preserve">外键</t>
-  </si>
-  <si>
-    <t xml:space="preserve">新增一个属性获奖级别？进行毕业预警或统计展示时可能会有用。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">arongyu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">荣誉</t>
-  </si>
-  <si>
-    <t xml:space="preserve">获奖名称</t>
-  </si>
-  <si>
-    <t xml:space="preserve">获奖类别</t>
-  </si>
-  <si>
-    <t xml:space="preserve">atime</t>
-  </si>
-  <si>
-    <t xml:space="preserve">获奖时间</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">表：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="0"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">internetapplication</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">iaid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">应用号</t>
-  </si>
-  <si>
-    <t xml:space="preserve">iayuming</t>
-  </si>
-  <si>
-    <t xml:space="preserve">域名</t>
-  </si>
-  <si>
-    <t xml:space="preserve">iasort</t>
-  </si>
-  <si>
-    <t xml:space="preserve">应用类型</t>
-  </si>
-  <si>
-    <t xml:space="preserve">iadelsign</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">表：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="0"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">internetdata</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">主键，外键</t>
-  </si>
-  <si>
-    <t xml:space="preserve">一个学生可能多次使用同一个应用，加上开始时间可能更能表现这种关系。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">idstarttime</t>
-  </si>
-  <si>
-    <t xml:space="preserve">开始时间</t>
-  </si>
-  <si>
-    <t xml:space="preserve">idendtime</t>
-  </si>
-  <si>
-    <t xml:space="preserve">结束时间</t>
-  </si>
-  <si>
-    <t xml:space="preserve">iddelsign</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">表：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="0"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">groupdata</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">gdid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">群体代码</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Noto Sans CJK SC"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">我设计了一种群体代码的表示方法，如</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="0"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">1_2019_03</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Noto Sans CJK SC"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">代表</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="0"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Noto Sans CJK SC"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">号学院</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="0"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">2019</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Noto Sans CJK SC"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">级</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="0"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">03</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Noto Sans CJK SC"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">班的全体学生，易于查找和权限判断，希望可以直接将其作为主键。</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">gdsex</t>
-  </si>
-  <si>
-    <t xml:space="preserve">男女比例</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gdage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">年龄比例</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gdzzmm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gdmz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">民族比例</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gdsyd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">生源地比例 </t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">表：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="0"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">groupbehavior</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">gbmonth</t>
   </si>
   <si>
     <t xml:space="preserve">月份</t>
@@ -2397,7 +2511,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="18">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -2434,6 +2548,24 @@
       <name val="宋体"/>
       <family val="0"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFCC7832"/>
+      <name val="DejaVu Sans Mono"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFA9B7C6"/>
+      <name val="DejaVu Sans Mono"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF6897BB"/>
+      <name val="DejaVu Sans Mono"/>
+      <family val="0"/>
     </font>
     <font>
       <sz val="11"/>
@@ -2485,6 +2617,12 @@
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="0"/>
     </font>
     <font>
       <b val="true"/>
@@ -2578,7 +2716,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2591,19 +2729,19 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2619,15 +2757,15 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2639,15 +2777,15 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2655,27 +2793,35 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2704,7 +2850,7 @@
       <rgbColor rgb="FF808000"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FFA9B7C6"/>
       <rgbColor rgb="FF808080"/>
       <rgbColor rgb="FF5B9BD5"/>
       <rgbColor rgb="FF993366"/>
@@ -2735,9 +2881,9 @@
       <rgbColor rgb="FF99CC00"/>
       <rgbColor rgb="FFFFC000"/>
       <rgbColor rgb="FFFF9900"/>
-      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FFCC7832"/>
       <rgbColor rgb="FF666699"/>
-      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF6897BB"/>
       <rgbColor rgb="FF003366"/>
       <rgbColor rgb="FF339966"/>
       <rgbColor rgb="FF003300"/>
@@ -2759,7 +2905,7 @@
   <dimension ref="A1:D62"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E9" activeCellId="0" sqref="E9"/>
+      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2791,14 +2937,14 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D3" s="0" t="s">
@@ -2806,32 +2952,32 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="0" t="s">
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3" t="s">
+      <c r="B5" s="4" t="s">
         <v>12</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="C5" s="0" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="5" t="s">
         <v>15</v>
       </c>
       <c r="C6" s="0" t="s">
@@ -2864,32 +3010,32 @@
       <c r="A60" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B60" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C60" s="3" t="s">
+      <c r="B60" s="4" t="s">
         <v>19</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>20</v>
       </c>
       <c r="D60" s="0" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B61" s="3" t="s">
-        <v>10</v>
+      <c r="A61" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="C61" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="3" t="s">
+      <c r="A62" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B62" s="4" t="s">
+      <c r="B62" s="5" t="s">
         <v>15</v>
       </c>
       <c r="C62" s="0" t="s">
@@ -2929,7 +3075,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -2951,27 +3097,27 @@
     </row>
     <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>6</v>
+        <v>147</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>42</v>
+      <c r="A4" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>43</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
   </sheetData>
@@ -2996,7 +3142,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3008,7 +3154,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -3029,93 +3175,93 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>6</v>
+      <c r="A3" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>6</v>
+        <v>153</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>10</v>
+      <c r="A5" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>156</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3" t="s">
+      <c r="A6" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="C7" s="3" t="s">
+      <c r="B6" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="3" t="s">
+    <row r="7" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="C8" s="3" t="s">
+      <c r="B7" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="3" t="s">
+    <row r="8" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="C9" s="3" t="s">
+      <c r="B8" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>163</v>
       </c>
     </row>
+    <row r="9" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="B9" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>165</v>
+      </c>
+    </row>
     <row r="10" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="B10" s="4" t="s">
+      <c r="A10" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="B10" s="5" t="s">
         <v>15</v>
       </c>
       <c r="C10" s="0" t="s">
@@ -3144,7 +3290,7 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3158,7 +3304,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -3178,66 +3324,66 @@
         <v>4</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" s="6" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="19" t="s">
-        <v>166</v>
-      </c>
-      <c r="B3" s="20" t="s">
-        <v>6</v>
+      <c r="A3" s="20" t="s">
+        <v>168</v>
+      </c>
+      <c r="B3" s="21" t="s">
+        <v>19</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="H3" s="12" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>6</v>
+      <c r="A4" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>42</v>
+      <c r="A5" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>175</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>10</v>
+      <c r="A6" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -3262,7 +3408,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3277,7 +3423,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -3299,56 +3445,56 @@
     </row>
     <row r="3" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>6</v>
+        <v>50</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>175</v>
-      </c>
-      <c r="E3" s="21" t="s">
-        <v>176</v>
+        <v>178</v>
+      </c>
+      <c r="E3" s="22" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="43.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>10</v>
+        <v>180</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="C4" s="0" t="s">
         <v>2</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>178</v>
-      </c>
-      <c r="E4" s="21"/>
+        <v>181</v>
+      </c>
+      <c r="E4" s="22"/>
     </row>
     <row r="5" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>42</v>
+      <c r="A5" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>43</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>181</v>
+      <c r="A6" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>184</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
   </sheetData>
@@ -3374,7 +3520,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F7" activeCellId="0" sqref="F7"/>
+      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3384,7 +3530,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -3406,51 +3552,51 @@
     </row>
     <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>188</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>185</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>181</v>
-      </c>
       <c r="C4" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E4" s="7"/>
     </row>
     <row r="5" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>181</v>
+      <c r="A5" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>191</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E5" s="7"/>
     </row>
     <row r="6" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>181</v>
+      <c r="A6" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>184</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="E6" s="7"/>
     </row>
@@ -3476,13 +3622,13 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F6" activeCellId="0" sqref="F6"/>
+      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.2"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="0" width="10.2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="6" width="10.2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="7" width="10.2"/>
@@ -3491,13 +3637,13 @@
   <sheetData>
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="F1" s="7" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3514,83 +3660,83 @@
         <v>4</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>6</v>
+        <v>196</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>181</v>
+      <c r="A4" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>184</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>181</v>
+      <c r="A5" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>184</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>6</v>
+        <v>187</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3" t="s">
-        <v>205</v>
+        <v>208</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="4" t="s">
+        <v>209</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>181</v>
+        <v>210</v>
       </c>
       <c r="C7" s="0" t="s">
         <v>16</v>
@@ -3618,7 +3764,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
+      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3634,13 +3780,13 @@
   <sheetData>
     <row r="1" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
-      <c r="F1" s="22" t="s">
-        <v>207</v>
+      <c r="F1" s="23" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3657,94 +3803,94 @@
         <v>4</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>6</v>
+        <v>196</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>6</v>
+        <v>50</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="D4" s="14"/>
       <c r="F4" s="8" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>181</v>
+      <c r="A5" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>43</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>156</v>
+      <c r="A6" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="B7" s="4" t="s">
+      <c r="A7" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="B7" s="5" t="s">
         <v>15</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="B8" s="4" t="s">
+      <c r="A8" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="B8" s="5" t="s">
         <v>15</v>
       </c>
       <c r="C8" s="0" t="s">
@@ -3774,7 +3920,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3788,7 +3934,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -3808,49 +3954,42 @@
         <v>4</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>6</v>
+        <v>50</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>6</v>
+        <v>147</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="15"/>
     </row>
-    <row r="5" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>228</v>
-      </c>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -3876,7 +4015,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3888,7 +4027,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -3910,59 +4049,59 @@
     </row>
     <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>6</v>
+        <v>232</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>181</v>
+      <c r="A4" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>184</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>181</v>
+      <c r="A5" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>181</v>
+      <c r="A6" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>184</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="B7" s="4" t="s">
+      <c r="A7" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="B7" s="5" t="s">
         <v>15</v>
       </c>
       <c r="C7" s="0" t="s">
@@ -4005,13 +4144,13 @@
   <sheetData>
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="0" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4028,73 +4167,73 @@
         <v>4</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>242</v>
+      <c r="A3" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>244</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>72</v>
+      <c r="A4" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>73</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>181</v>
+      <c r="A5" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>184</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>42</v>
+      <c r="A6" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>43</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="B7" s="4" t="s">
+      <c r="A7" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="B7" s="5" t="s">
         <v>15</v>
       </c>
       <c r="C7" s="0" t="s">
@@ -4123,7 +4262,7 @@
   <dimension ref="A1:D62"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
+      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4135,7 +4274,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -4157,49 +4296,49 @@
     </row>
     <row r="3" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>6</v>
+        <v>24</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" s="0" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>10</v>
+      <c r="A4" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>12</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="C5" s="0" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>10</v>
+      <c r="A6" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4228,32 +4367,32 @@
       <c r="A60" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B60" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C60" s="3" t="s">
+      <c r="B60" s="4" t="s">
         <v>19</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>20</v>
       </c>
       <c r="D60" s="0" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B61" s="3" t="s">
-        <v>10</v>
+      <c r="A61" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="C61" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="3" t="s">
+      <c r="A62" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B62" s="4" t="s">
+      <c r="B62" s="5" t="s">
         <v>15</v>
       </c>
       <c r="C62" s="0" t="s">
@@ -4295,7 +4434,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -4317,45 +4456,45 @@
     </row>
     <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>6</v>
+        <v>254</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>181</v>
+      <c r="A4" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>184</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>181</v>
+      <c r="A5" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>184</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="B6" s="4" t="s">
+      <c r="A6" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="B6" s="5" t="s">
         <v>15</v>
       </c>
       <c r="C6" s="0" t="s">
@@ -4383,8 +4522,8 @@
   </sheetPr>
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4396,7 +4535,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -4416,70 +4555,70 @@
         <v>4</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>6</v>
+        <v>50</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>6</v>
+        <v>254</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="15"/>
     </row>
     <row r="5" customFormat="false" ht="14.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>42</v>
+        <v>264</v>
+      </c>
+      <c r="B5" s="24" t="s">
+        <v>175</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E5" s="15"/>
     </row>
-    <row r="6" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3" t="s">
-        <v>264</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>42</v>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="B6" s="24" t="s">
+        <v>175</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="B7" s="4" t="s">
+      <c r="A7" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="B7" s="5" t="s">
         <v>15</v>
       </c>
       <c r="C7" s="0" t="s">
@@ -4524,7 +4663,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -4544,82 +4683,82 @@
         <v>4</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>181</v>
+        <v>270</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>184</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="s">
-        <v>271</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>181</v>
+      <c r="A4" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>184</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3" t="s">
-        <v>273</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>181</v>
+      <c r="A5" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>184</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>181</v>
+      <c r="A6" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>184</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3" t="s">
-        <v>276</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>181</v>
+      <c r="A7" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>184</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="3" t="s">
-        <v>278</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>181</v>
+      <c r="A8" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>184</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
   </sheetData>
@@ -4656,7 +4795,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -4678,71 +4817,71 @@
     </row>
     <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="11" t="s">
-        <v>268</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>181</v>
+        <v>270</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>184</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="s">
-        <v>281</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>227</v>
+      <c r="A4" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>284</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>227</v>
+      <c r="A5" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>284</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>286</v>
+      <c r="A6" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>289</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3" t="s">
-        <v>288</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>286</v>
+      <c r="A7" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>289</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="3" t="s">
-        <v>290</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>181</v>
+      <c r="A8" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>184</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
     </row>
   </sheetData>
@@ -4779,7 +4918,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -4801,49 +4940,49 @@
     </row>
     <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>181</v>
+        <v>270</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>184</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>227</v>
+      <c r="A4" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>284</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3" t="s">
-        <v>294</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>227</v>
+      <c r="A5" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>284</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3" t="s">
-        <v>296</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>227</v>
+      <c r="A6" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>284</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
     </row>
   </sheetData>
@@ -4880,7 +5019,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -4902,49 +5041,49 @@
     </row>
     <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>181</v>
+        <v>270</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>184</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="s">
-        <v>299</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>227</v>
+      <c r="A4" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>284</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3" t="s">
-        <v>300</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>227</v>
+      <c r="A5" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>284</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3" t="s">
-        <v>302</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>227</v>
+      <c r="A6" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>284</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
     </row>
   </sheetData>
@@ -4983,13 +5122,13 @@
   <sheetData>
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="6" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5006,69 +5145,69 @@
         <v>4</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="23" t="s">
-        <v>268</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>181</v>
+      <c r="A3" s="25" t="s">
+        <v>270</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>184</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="s">
-        <v>307</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>227</v>
+      <c r="A4" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>284</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="H4" s="4"/>
+        <v>93</v>
+      </c>
+      <c r="H4" s="5"/>
     </row>
     <row r="5" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>6</v>
+      <c r="A5" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C6" s="0" t="s">
-        <v>311</v>
-      </c>
-      <c r="E6" s="24" t="s">
-        <v>312</v>
+        <v>314</v>
+      </c>
+      <c r="E6" s="26" t="s">
+        <v>315</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3" t="s">
-        <v>313</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>227</v>
+      <c r="A7" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>284</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
     </row>
   </sheetData>
@@ -5103,7 +5242,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -5124,31 +5263,31 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>6</v>
+      <c r="A3" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="s">
-        <v>316</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>6</v>
+      <c r="A4" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
     </row>
   </sheetData>
@@ -5182,12 +5321,12 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
+      <c r="A1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
     </row>
     <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
@@ -5205,27 +5344,27 @@
     </row>
     <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -5260,7 +5399,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -5282,49 +5421,49 @@
     </row>
     <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -5349,7 +5488,7 @@
   <dimension ref="A1:F1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E12" activeCellId="0" sqref="E12"/>
+      <selection pane="topLeft" activeCell="B12" activeCellId="0" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5365,13 +5504,13 @@
   <sheetData>
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="F1" s="8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5388,166 +5527,166 @@
         <v>4</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>6</v>
+        <v>50</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D3" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>39</v>
+      <c r="A4" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>40</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B5" s="3" t="s">
+      <c r="A5" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>15</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3" t="s">
-        <v>58</v>
+      <c r="A6" s="4" t="s">
+        <v>59</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>6</v>
+      <c r="A7" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>6</v>
+      <c r="A8" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>10</v>
+      <c r="A9" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B10" s="3" t="s">
+      <c r="A10" s="4" t="s">
         <v>72</v>
       </c>
+      <c r="B10" s="4" t="s">
+        <v>73</v>
+      </c>
       <c r="C10" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>10</v>
+      <c r="A11" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="B12" s="4" t="s">
+      <c r="A12" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B12" s="5" t="s">
         <v>15</v>
       </c>
       <c r="C12" s="0" t="s">
         <v>16</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="10" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -5609,32 +5748,32 @@
       <c r="A3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="3" t="s">
+      <c r="B3" s="4" t="s">
         <v>19</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>20</v>
       </c>
       <c r="D3" s="0" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>10</v>
+      <c r="A4" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="5" t="s">
         <v>15</v>
       </c>
       <c r="C5" s="0" t="s">
@@ -5663,7 +5802,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5677,13 +5816,13 @@
   <sheetData>
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
-      <c r="F1" s="3" t="s">
-        <v>84</v>
+      <c r="F1" s="4" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5700,97 +5839,97 @@
         <v>4</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="11" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>6</v>
+        <v>87</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D3" s="0" t="s">
         <v>8</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>88</v>
+        <v>89</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>10</v>
+      <c r="A4" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>92</v>
+        <v>93</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>10</v>
+      <c r="A5" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>94</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>95</v>
+        <v>96</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>10</v>
+      <c r="A6" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>98</v>
+        <v>99</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>6</v>
+      <c r="A7" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="B8" s="4" t="s">
+      <c r="A8" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="B8" s="5" t="s">
         <v>15</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -5814,8 +5953,8 @@
   </sheetPr>
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E14" activeCellId="0" sqref="E14"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5830,13 +5969,13 @@
   <sheetData>
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
-      <c r="F1" s="3" t="s">
-        <v>105</v>
+      <c r="F1" s="4" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5853,126 +5992,126 @@
         <v>4</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>6</v>
+        <v>50</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>107</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>108</v>
+        <v>109</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="11" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>6</v>
+        <v>87</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D4" s="14"/>
       <c r="E4" s="15"/>
     </row>
     <row r="5" customFormat="false" ht="14.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>42</v>
+        <v>111</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>43</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E5" s="15"/>
-      <c r="F5" s="3" t="s">
-        <v>112</v>
+      <c r="F5" s="4" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>42</v>
+      <c r="A6" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>43</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>114</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>115</v>
+        <v>116</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>42</v>
+      <c r="A7" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>43</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>117</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>118</v>
+        <v>119</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>6</v>
+      <c r="A8" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>122</v>
+      <c r="A9" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>124</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>6</v>
+      <c r="A10" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="B11" s="4" t="s">
+      <c r="A11" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="B11" s="5" t="s">
         <v>15</v>
       </c>
       <c r="C11" s="0" t="s">
@@ -6018,13 +6157,13 @@
   <sheetData>
     <row r="1" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="17" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6042,100 +6181,100 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>6</v>
+      <c r="A3" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D3" s="18" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>6</v>
+      <c r="B4" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D4" s="18" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>6</v>
+        <v>134</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>42</v>
+      <c r="A6" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>43</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>10</v>
+      <c r="A7" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>122</v>
+      <c r="A8" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>124</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="B9" s="4" t="s">
+      <c r="A9" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="B9" s="5" t="s">
         <v>15</v>
       </c>
       <c r="C9" s="0" t="s">

--- a/src/main/resources/documents/表结构.xlsx
+++ b/src/main/resources/documents/表结构.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="6"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="用户" sheetId="1" state="visible" r:id="rId2"/>
@@ -3625,14 +3625,15 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F3" activeCellId="0" sqref="F3"/>
+      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.4"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="0" width="10.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="12.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="6" width="10.2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="7" width="10.2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="7" style="0" width="10.2"/>
@@ -3767,8 +3768,8 @@
   </sheetPr>
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F3" activeCellId="0" sqref="F3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E9" activeCellId="0" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5867,7 +5868,7 @@
   </sheetPr>
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="H4" activeCellId="0" sqref="H4"/>
     </sheetView>
   </sheetViews>

--- a/src/main/resources/documents/表结构.xlsx
+++ b/src/main/resources/documents/表结构.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="15"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="用户" sheetId="1" state="visible" r:id="rId2"/>
@@ -324,96 +324,96 @@
     <t xml:space="preserve">班级名（如一班二班）</t>
   </si>
   <si>
-    <t xml:space="preserve">year</t>
+    <t xml:space="preserve">intyear</t>
+  </si>
+  <si>
+    <t xml:space="preserve">创建年份</t>
+  </si>
+  <si>
+    <t xml:space="preserve">school</t>
+  </si>
+  <si>
+    <t xml:space="preserve">所属学院</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">表名：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="0"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">student</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="0"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">ICDC_XS.BKS_XSJBSJXX</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">，基本、学籍</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">袁备注</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stuid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">学号</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stuname</t>
+  </si>
+  <si>
+    <t xml:space="preserve">姓名</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stusex</t>
+  </si>
+  <si>
+    <t xml:space="preserve">性别</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xbm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">birth</t>
   </si>
   <si>
     <t xml:space="preserve">date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">创建年份</t>
-  </si>
-  <si>
-    <t xml:space="preserve">school</t>
-  </si>
-  <si>
-    <t xml:space="preserve">所属学院</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">表名：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="0"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">student</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="0"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">ICDC_XS.BKS_XSJBSJXX</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">，基本、学籍</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">袁备注</t>
-  </si>
-  <si>
-    <t xml:space="preserve">stuid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">学号</t>
-  </si>
-  <si>
-    <t xml:space="preserve">xh</t>
-  </si>
-  <si>
-    <t xml:space="preserve">stuname</t>
-  </si>
-  <si>
-    <t xml:space="preserve">姓名</t>
-  </si>
-  <si>
-    <t xml:space="preserve">xm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">stusex</t>
-  </si>
-  <si>
-    <t xml:space="preserve">性别</t>
-  </si>
-  <si>
-    <t xml:space="preserve">xbm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">birth</t>
   </si>
   <si>
     <t xml:space="preserve">生日</t>
@@ -3117,7 +3117,7 @@
         <v>161</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="C4" s="0" t="s">
         <v>149</v>
@@ -3327,7 +3327,7 @@
         <v>4</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" s="6" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3361,7 +3361,7 @@
         <v>19</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D4" s="0" t="s">
         <v>184</v>
@@ -3448,13 +3448,13 @@
     </row>
     <row r="3" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>19</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D3" s="14" t="s">
         <v>189</v>
@@ -3483,7 +3483,7 @@
         <v>193</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="C5" s="0" t="s">
         <v>149</v>
@@ -3575,7 +3575,7 @@
         <v>195</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E4" s="7"/>
     </row>
@@ -3587,7 +3587,7 @@
         <v>202</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E5" s="7"/>
     </row>
@@ -3664,7 +3664,7 @@
         <v>4</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3768,7 +3768,7 @@
   </sheetPr>
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E9" activeCellId="0" sqref="E9"/>
     </sheetView>
   </sheetViews>
@@ -3808,7 +3808,7 @@
         <v>4</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3833,7 +3833,7 @@
     </row>
     <row r="4" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>19</v>
@@ -3843,7 +3843,7 @@
       </c>
       <c r="D4" s="15"/>
       <c r="F4" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G4" s="0" t="n">
         <v>0</v>
@@ -3854,7 +3854,7 @@
         <v>227</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="C5" s="25" t="s">
         <v>228</v>
@@ -4014,18 +4014,18 @@
         <v>4</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>19</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>248</v>
@@ -4227,18 +4227,18 @@
         <v>4</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>263</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D3" s="0" t="s">
         <v>264</v>
@@ -4280,7 +4280,7 @@
         <v>270</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="C6" s="0" t="s">
         <v>149</v>
@@ -4615,18 +4615,18 @@
         <v>4</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>19</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>281</v>
@@ -4743,7 +4743,7 @@
         <v>4</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5205,7 +5205,7 @@
         <v>4</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5324,13 +5324,13 @@
     </row>
     <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>19</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D3" s="0" t="s">
         <v>264</v>
@@ -5448,8 +5448,8 @@
   </sheetPr>
   <dimension ref="A1:D1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5493,26 +5493,26 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
         <v>41</v>
       </c>
       <c r="B4" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="0" t="s">
         <v>42</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>19</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -5554,13 +5554,13 @@
   <sheetData>
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="F1" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5577,7 +5577,7 @@
         <v>4</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F2" s="7" t="s">
         <v>1</v>
@@ -5585,55 +5585,55 @@
     </row>
     <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>19</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D3" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>39</v>
       </c>
       <c r="C4" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="F4" s="8" t="s">
         <v>53</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>15</v>
       </c>
       <c r="C5" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="F5" s="8" t="s">
         <v>56</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" s="9" t="s">
         <v>58</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>42</v>
       </c>
       <c r="C6" s="0" t="s">
         <v>59</v>
@@ -5907,7 +5907,7 @@
         <v>4</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6093,18 +6093,18 @@
         <v>4</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>19</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D3" s="15" t="s">
         <v>118</v>
@@ -6143,7 +6143,7 @@
         <v>122</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="C5" s="0" t="s">
         <v>123</v>
@@ -6164,7 +6164,7 @@
         <v>126</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="C6" s="0" t="s">
         <v>127</v>
@@ -6181,7 +6181,7 @@
         <v>129</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="C7" s="0" t="s">
         <v>130</v>
@@ -6321,19 +6321,19 @@
     </row>
     <row r="4" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>19</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D4" s="19" t="s">
         <v>145</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F4" s="0" t="n">
         <v>0</v>
@@ -6364,7 +6364,7 @@
         <v>148</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="C6" s="0" t="s">
         <v>149</v>
